--- a/output/rf_vertebral_output.xlsx
+++ b/output/rf_vertebral_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5cac48941448979/Bureaublad/msc_thesis/thesis_code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_42CED800EC2F6BAC924C21AC449421EDE9E2BEF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9539B5D1-6997-4BF8-9640-CDCBADDC13C8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_42CED800EC3FEB9856AE3CAC449421EDE9E2BEF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DC8B63-27A3-4039-82BA-B48CAE144C33}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
